--- a/biology/Zoologie/Claraziidae/Claraziidae.xlsx
+++ b/biology/Zoologie/Claraziidae/Claraziidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Claraziidae forment une famille fossile de thalattosauriens[1]. La validité du taxon est discutée[2],[3]. Les deux genres appartenant à cette famille, Clarazia et  Hescheleria, ont vécu au Trias moyen et supérieur. Leurs fossiles ont été découverts au Monte San Giorgio en Suisse dans le canton du Tessin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Claraziidae forment une famille fossile de thalattosauriens. La validité du taxon est discutée,. Les deux genres appartenant à cette famille, Clarazia et  Hescheleria, ont vécu au Trias moyen et supérieur. Leurs fossiles ont été découverts au Monte San Giorgio en Suisse dans le canton du Tessin.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Clarazia, qui contient au moins une espèce, C. schinzi se nourrissait de crustacés, tandis qu'Hescheleria rubeli, de plus grande taille, mangeait du poisson et des calmars[réf. nécessaire].
 </t>
@@ -568,10 +584,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La validité de la famille des Claraziidae est débattue[3].
-La phylogénie présentée ici suit Haaramo (2004)[4] et Wu et al. (2009)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La validité de la famille des Claraziidae est débattue.
+La phylogénie présentée ici suit Haaramo (2004) et Wu et al. (2009).
 </t>
         </is>
       </c>
